--- a/biology/Biochimie/Hexose/Hexose.xlsx
+++ b/biology/Biochimie/Hexose/Hexose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hexoses sont des oses (monosaccharides) qui comportent 6 atomes de carbone.
 Ils ont tous la même formule brute C6H12O6.
@@ -515,9 +527,11 @@
           <t>D-aldohexoses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les aldohexoses possèdent quatre atomes de carbone asymétriques ce qui fait que 8 paires d'énantiomères, diastéréoisomères entre elles, sont possibles. Parmi eux, seuls le D-glucose, le D-galactose ou D-mannose sont naturellement présents dans la nature.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aldohexoses possèdent quatre atomes de carbone asymétriques ce qui fait que 8 paires d'énantiomères, diastéréoisomères entre elles, sont possibles. Parmi eux, seuls le D-glucose, le D-galactose ou D-mannose sont naturellement présents dans la nature.
 			allose
 			altrose
 			glucose
@@ -526,9 +540,7 @@
 			idose
 			galactose
 			talose
-Moyens mnémotechniques
-(fr) Allez Altruistes Glaner la Manne, Gustave Ira Garder les Taureaux.
-(en) all altruists gladly make gum in gallon tanks.</t>
+</t>
         </is>
       </c>
     </row>
@@ -553,10 +565,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>D-aldohexoses</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Moyens mnémotechniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(fr) Allez Altruistes Glaner la Manne, Gustave Ira Garder les Taureaux.
+(en) all altruists gladly make gum in gallon tanks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hexose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Cétohexoses (ou hexulose)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cétohexoses possèdent 3 atomes de carbone chiraux soit 4 paires d'énantiomères, diastéréoisomères entre elles. Les cétohexones avec la fonction cétone en position 2 sont :
 			psicose (ou allulose)
